--- a/src/assets/files/template.xlsx
+++ b/src/assets/files/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO-EQP364\Downloads\arquivos para teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EB811B-F9A8-4EDA-ABEF-585AE55CCEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA58AA7-C567-45E9-BCE0-63DC9E85A6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,57 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
-    <t>COMPRA</t>
+    <t>DATAVENDA</t>
   </si>
   <si>
     <t>PRODUTO</t>
   </si>
   <si>
     <t>CLIENTE</t>
-  </si>
-  <si>
-    <t>QUEIJO PRESUNTO</t>
-  </si>
-  <si>
-    <t>CALABRESA</t>
-  </si>
-  <si>
-    <t>TRADICIONAL</t>
-  </si>
-  <si>
-    <t>Produtos</t>
-  </si>
-  <si>
-    <t>TRADICONAL</t>
-  </si>
-  <si>
-    <t>LEITE</t>
-  </si>
-  <si>
-    <t>MILHO</t>
-  </si>
-  <si>
-    <t>FRANGO</t>
-  </si>
-  <si>
-    <t>DOCE DE LEITE</t>
-  </si>
-  <si>
-    <t>Soma de QUANT.</t>
-  </si>
-  <si>
-    <t>FRANGO / PRESUNTO E QUEIJO</t>
-  </si>
-  <si>
-    <t>PRESUNTO/QUEIJO</t>
-  </si>
-  <si>
-    <t>Coluna1</t>
-  </si>
-  <si>
-    <t>DATAVENDA</t>
   </si>
   <si>
     <t>QUANT</t>
@@ -103,10 +61,55 @@
     <t>UNI</t>
   </si>
   <si>
+    <t>COMPRA</t>
+  </si>
+  <si>
     <t>PRECO UNIT</t>
   </si>
   <si>
     <t>TOTALCUSTO</t>
+  </si>
+  <si>
+    <t>LEITE</t>
+  </si>
+  <si>
+    <t>QUEIJO PRESUNTO</t>
+  </si>
+  <si>
+    <t>Soma de QUANT.</t>
+  </si>
+  <si>
+    <t>CALABRESA</t>
+  </si>
+  <si>
+    <t>FRANGO</t>
+  </si>
+  <si>
+    <t>FRANGO / PRESUNTO E QUEIJO</t>
+  </si>
+  <si>
+    <t>PRESUNTO/QUEIJO</t>
+  </si>
+  <si>
+    <t>TRADICIONAL</t>
+  </si>
+  <si>
+    <t>Produtos</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>TRADICONAL</t>
+  </si>
+  <si>
+    <t>MILHO</t>
+  </si>
+  <si>
+    <t>DOCE DE LEITE</t>
+  </si>
+  <si>
+    <t>PAGO</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,25 +133,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -171,7 +159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,57 +190,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -380,7 +352,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Template.xlsx]RELAÇÃO!Tabela dinâmica5</c:name>
+    <c:name>[template.xlsx]RELAÇÃO!Tabela dinâmica5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -577,7 +549,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7BF7-4B02-A26C-2CA4F41D6E35}"/>
+              <c16:uniqueId val="{00000000-B8F6-4C0C-A1E2-F5C21C9249E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1341,7 +1313,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Cinthia Barbosa" refreshedDate="44134.431430439799" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="58" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E60" sheet="JANEIRO"/>
+    <worksheetSource ref="A1:E5" sheet="JANEIRO"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="DATA" numFmtId="14">
@@ -1786,7 +1758,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
@@ -1909,11 +1881,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Produtos1" displayName="Produtos1" ref="A1:B8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Produtos1" displayName="Produtos1" ref="A1:B8" totalsRowShown="0">
   <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Produtos"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Coluna1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coluna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2177,1162 +2149,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="14" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9" style="14"/>
+    <col min="10" max="10" width="23.28515625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:13" ht="21.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>22</v>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="10"/>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A2" s="5"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="10"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="6"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="6"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="6"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="6"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="6"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="6"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="6"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="6"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="6"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="6"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="6"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="6"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="6"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="6"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="6"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="6"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="6"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="6"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="6"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="6"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="6"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="6"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="6"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="6"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="6"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="6"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="6"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="6"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="6"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="6"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="6"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="6"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="6"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="6"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="6"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="6"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="6"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="6"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="6"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="6"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="6"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="6"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="6"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="6"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="6"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="6"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="6"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="6"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="6"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="6"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="6"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="6"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="6"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="6"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="6"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="6"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="6"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="6"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="6"/>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="6"/>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="6"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="6"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="6"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="6"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="6"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="6"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="6"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="6"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="6"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="6"/>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="6"/>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="6"/>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="6"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="6"/>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="6"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="6"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="6"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="6"/>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="6"/>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="6"/>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="6"/>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="6"/>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="6"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="6"/>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="6"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="6"/>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="6"/>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="6"/>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="6"/>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="6"/>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="6"/>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="6"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3365,7 +2298,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>7</v>
@@ -3373,7 +2306,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -3381,7 +2314,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -3389,7 +2322,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
@@ -3397,7 +2330,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>84</v>
@@ -3424,15 +2357,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>12</v>
@@ -3440,7 +2373,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>13</v>
@@ -3448,7 +2381,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2">
         <v>13</v>
@@ -3456,7 +2389,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>18</v>
@@ -3464,7 +2397,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>18</v>
@@ -3472,7 +2405,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>18</v>
@@ -3480,7 +2413,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>18</v>
